--- a/AWS_Goods/汇总.xlsx
+++ b/AWS_Goods/汇总.xlsx
@@ -18262,7 +18262,7 @@
           <t>B07Q64YP9G</t>
         </is>
       </c>
-      <c r="B1965" s="3" t="n"/>
+      <c r="B1965" s="3" t="inlineStr"/>
     </row>
     <row r="1966">
       <c r="A1966" s="1" t="inlineStr">
@@ -18270,8 +18270,10 @@
           <t>B07N6LHCPY</t>
         </is>
       </c>
-      <c r="B1966" s="3" t="n">
-        <v>1249</v>
+      <c r="B1966" s="3" t="inlineStr">
+        <is>
+          <t>1,249.00</t>
+        </is>
       </c>
     </row>
     <row r="1967">
@@ -18280,6 +18282,7 @@
           <t>B07N6436VH</t>
         </is>
       </c>
+      <c r="B1967" t="inlineStr"/>
     </row>
     <row r="1968">
       <c r="A1968" s="1" t="inlineStr">
@@ -23302,7 +23305,7 @@
           <t>B07MXLCJJC</t>
         </is>
       </c>
-      <c r="B2501" t="n">
+      <c r="B2501" s="0" t="n">
         <v>79.39</v>
       </c>
     </row>
@@ -23312,7 +23315,7 @@
           <t>B07MQPS5Q7</t>
         </is>
       </c>
-      <c r="B2502" t="n">
+      <c r="B2502" s="0" t="n">
         <v>49</v>
       </c>
     </row>
@@ -23322,7 +23325,7 @@
           <t>B07N78ZQNT</t>
         </is>
       </c>
-      <c r="B2503" t="n">
+      <c r="B2503" s="0" t="n">
         <v>45</v>
       </c>
     </row>
@@ -23332,7 +23335,7 @@
           <t>B0786GKRL8</t>
         </is>
       </c>
-      <c r="B2504" t="n">
+      <c r="B2504" s="0" t="n">
         <v>70.5</v>
       </c>
     </row>
@@ -23342,7 +23345,7 @@
           <t>B07MSCJ9N4</t>
         </is>
       </c>
-      <c r="B2505" t="n">
+      <c r="B2505" s="0" t="n">
         <v>74.08</v>
       </c>
     </row>
@@ -23352,7 +23355,7 @@
           <t>B07MX1ZS7C</t>
         </is>
       </c>
-      <c r="B2506" t="n">
+      <c r="B2506" s="0" t="n">
         <v>78.65000000000001</v>
       </c>
     </row>
@@ -23362,7 +23365,7 @@
           <t>B07P7XL52W</t>
         </is>
       </c>
-      <c r="B2507" t="n">
+      <c r="B2507" s="0" t="n">
         <v>176.4</v>
       </c>
     </row>
@@ -23372,7 +23375,7 @@
           <t>B07MCN5R4Z</t>
         </is>
       </c>
-      <c r="B2508" t="n">
+      <c r="B2508" s="0" t="n">
         <v>110</v>
       </c>
     </row>
@@ -23382,7 +23385,7 @@
           <t>B07MVTLMSB</t>
         </is>
       </c>
-      <c r="B2509" t="n">
+      <c r="B2509" s="0" t="n">
         <v>179</v>
       </c>
     </row>
@@ -23392,7 +23395,7 @@
           <t>B07MWHYYFS</t>
         </is>
       </c>
-      <c r="B2510" t="n">
+      <c r="B2510" s="0" t="n">
         <v>41</v>
       </c>
     </row>

--- a/AWS_Goods/汇总.xlsx
+++ b/AWS_Goods/汇总.xlsx
@@ -3314,6 +3314,9 @@
           <t>B07MXL2SKQ</t>
         </is>
       </c>
+      <c r="B300" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
@@ -3321,6 +3324,9 @@
           <t>B07MVLJRNJ</t>
         </is>
       </c>
+      <c r="B301" t="n">
+        <v>73.2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
@@ -3328,6 +3334,9 @@
           <t>B07MVGWNZJ</t>
         </is>
       </c>
+      <c r="B302" t="n">
+        <v>39.99</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
@@ -3335,6 +3344,7 @@
           <t>B07M84C85T</t>
         </is>
       </c>
+      <c r="B303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
@@ -3342,6 +3352,9 @@
           <t>B07N6JVVCX</t>
         </is>
       </c>
+      <c r="B304" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
@@ -3349,6 +3362,9 @@
           <t>B07MVP776M</t>
         </is>
       </c>
+      <c r="B305" t="n">
+        <v>65.78</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
@@ -3356,6 +3372,9 @@
           <t>B07N6KTFPG</t>
         </is>
       </c>
+      <c r="B306" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
@@ -3363,6 +3382,9 @@
           <t>B07NF4LJS6</t>
         </is>
       </c>
+      <c r="B307" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
@@ -3370,6 +3392,9 @@
           <t>B07N7XFWWG</t>
         </is>
       </c>
+      <c r="B308" t="n">
+        <v>98.8</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
@@ -3377,6 +3402,9 @@
           <t>B07N7ZB9DK</t>
         </is>
       </c>
+      <c r="B309" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
@@ -3384,6 +3412,7 @@
           <t>B004EZBFA6</t>
         </is>
       </c>
+      <c r="B310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
@@ -3391,18 +3420,25 @@
           <t>B07PG4R3B1</t>
         </is>
       </c>
+      <c r="B311" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
           <t>B07QCWZ3JT</t>
         </is>
+      </c>
+      <c r="B312" t="n">
+        <v>65.98999999999999</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
         <v>99536013</v>
       </c>
+      <c r="B313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="inlineStr">
@@ -3410,6 +3446,9 @@
           <t>B07NDZXFW7</t>
         </is>
       </c>
+      <c r="B314" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="inlineStr">
@@ -3417,6 +3456,7 @@
           <t>B07N6MM44T</t>
         </is>
       </c>
+      <c r="B315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="inlineStr">
@@ -3424,6 +3464,9 @@
           <t>B07NY2KYP7</t>
         </is>
       </c>
+      <c r="B316" t="n">
+        <v>28.99</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="inlineStr">
@@ -3431,6 +3474,9 @@
           <t>B07MX9K8Z4</t>
         </is>
       </c>
+      <c r="B317" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="inlineStr">
@@ -3438,6 +3484,9 @@
           <t>B07MXHP2K3</t>
         </is>
       </c>
+      <c r="B318" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="inlineStr">
@@ -3445,6 +3494,9 @@
           <t>B07MMHP9MS</t>
         </is>
       </c>
+      <c r="B319" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="inlineStr">
@@ -3452,6 +3504,9 @@
           <t>B07M83WTL6</t>
         </is>
       </c>
+      <c r="B320" t="n">
+        <v>53.85</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="inlineStr">
@@ -3459,6 +3514,9 @@
           <t>B07MVMZJD5</t>
         </is>
       </c>
+      <c r="B321" t="n">
+        <v>48.99</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="inlineStr">
@@ -3466,6 +3524,7 @@
           <t>B07MWSNGY7</t>
         </is>
       </c>
+      <c r="B322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="inlineStr">
@@ -3473,6 +3532,7 @@
           <t>B07PCYFBL8</t>
         </is>
       </c>
+      <c r="B323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="inlineStr">
@@ -3480,12 +3540,18 @@
           <t>B07S8Z8L7B</t>
         </is>
       </c>
+      <c r="B324" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="inlineStr">
         <is>
           <t>B07P61G9ML</t>
         </is>
+      </c>
+      <c r="B325" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="326">
@@ -18282,7 +18348,7 @@
           <t>B07N6436VH</t>
         </is>
       </c>
-      <c r="B1967" t="inlineStr"/>
+      <c r="B1967" s="0" t="inlineStr"/>
     </row>
     <row r="1968">
       <c r="A1968" s="1" t="inlineStr">
